--- a/premise/data/additional_inventories/lci-hydrogen-pyrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-pyrolysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDE9238-6F92-5D47-AC72-C552187E620D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2EB5D4-69B7-1749-A494-902F06F20822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23040" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>Database</t>
   </si>
@@ -79,9 +79,6 @@
     <t>kilogram</t>
   </si>
   <si>
-    <t>cutoff</t>
-  </si>
-  <si>
     <t>biosphere</t>
   </si>
   <si>
@@ -140,12 +137,6 @@
   </si>
   <si>
     <t>negative</t>
-  </si>
-  <si>
-    <t>simapro category</t>
-  </si>
-  <si>
-    <t>Material/Fuels/Synthetic/Transformation</t>
   </si>
   <si>
     <t>market for electricity, low voltage</t>
@@ -681,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T363"/>
+  <dimension ref="A1:T362"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -697,25 +688,29 @@
     <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="99.1640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1">
-        <v>9</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="6"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -725,26 +720,28 @@
       <c r="I2" s="6"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="6"/>
-      <c r="K3" s="3"/>
+    <row r="3" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="11"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
@@ -754,10 +751,10 @@
     </row>
     <row r="5" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -768,10 +765,10 @@
     </row>
     <row r="6" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="B6" s="31">
+        <v>12</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -782,10 +779,10 @@
     </row>
     <row r="7" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="31">
-        <v>12</v>
+        <v>0.13</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -796,10 +793,11 @@
     </row>
     <row r="8" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="31">
-        <v>0.13</v>
+        <v>42</v>
+      </c>
+      <c r="B8" s="32">
+        <f>(1*B6)/((1*B6)+(3.91*B7))</f>
+        <v>0.95936298297930178</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -810,11 +808,10 @@
     </row>
     <row r="9" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="32">
-        <f>(1*B7)/((1*B7)+(3.91*B8))</f>
-        <v>0.95936298297930178</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -825,10 +822,10 @@
     </row>
     <row r="10" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -839,11 +836,14 @@
     </row>
     <row r="11" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>68</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -852,15 +852,18 @@
       <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="A12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -870,155 +873,197 @@
     </row>
     <row r="13" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="8"/>
     </row>
     <row r="14" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="18" t="s">
+      <c r="A14" s="17" t="str">
+        <f>B3</f>
+        <v>hydrogen production, gaseous, 100 bar, from methane pyrolysis</v>
+      </c>
+      <c r="B14" s="33">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12" t="str">
+        <f>B10</f>
+        <v>RER</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f>B11</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="17" t="str">
+        <f>B9</f>
+        <v>hydrogen, gaseous, 100 bar</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="T14"/>
+    </row>
+    <row r="15" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="33">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="12">
         <v>2</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="T14" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="str">
-        <f>B4</f>
-        <v>hydrogen production, gaseous, 100 bar, from methane pyrolysis</v>
-      </c>
-      <c r="B15" s="33">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12" t="str">
-        <f>B11</f>
-        <v>RER</v>
-      </c>
-      <c r="D15" s="12" t="str">
-        <f>B12</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="17" t="str">
-        <f>B10</f>
-        <v>hydrogen, gaseous, 100 bar</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="T15" t="s">
-        <v>36</v>
-      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:J25" si="0">LN(B15)</f>
+        <v>-11.417615285165903</v>
+      </c>
+      <c r="K15" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="L15" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M15" s="20">
+        <v>1.03</v>
+      </c>
+      <c r="N15" s="20">
+        <v>1.01</v>
+      </c>
+      <c r="O15" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P15" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <f>LN(SQRT(EXP(
+SQRT(
++POWER(LN(K15),2)
++POWER(LN(L15),2)
++POWER(LN(M15),2)
++POWER(LN(N15),2)
++POWER(LN(O15),2)
++POWER(LN(P15),2)
++POWER(LN(Q15),2)
+)
+)))</f>
+        <v>0.5789832236286534</v>
+      </c>
+      <c r="S15" s="18"/>
     </row>
     <row r="16" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B16" s="33">
-        <v>1.1E-5</v>
+        <v>7.3300000000000001E-6</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="18"/>
       <c r="F16" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I16" s="12">
         <v>2</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:J26" si="0">LN(B16)</f>
-        <v>-11.417615285165903</v>
+        <f t="shared" si="0"/>
+        <v>-11.823535042065714</v>
       </c>
       <c r="K16" s="20">
         <v>1.2</v>
@@ -1042,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="R16">
-        <f t="shared" ref="R16:R26" si="1">LN(SQRT(EXP(
+        <f t="shared" ref="R15:R25" si="1">LN(SQRT(EXP(
 SQRT(
 +POWER(LN(K16),2)
 +POWER(LN(L16),2)
@@ -1055,17 +1100,16 @@
 )))</f>
         <v>0.5789832236286534</v>
       </c>
-      <c r="S16" s="18"/>
     </row>
     <row r="17" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B17" s="33">
-        <v>7.3300000000000001E-6</v>
+        <v>2.5899999999999999E-3</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>13</v>
@@ -1074,17 +1118,17 @@
         <v>12</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I17" s="12">
         <v>2</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>-11.823535042065714</v>
+        <v>-5.9560974032706904</v>
       </c>
       <c r="K17" s="20">
         <v>1.2</v>
@@ -1117,10 +1161,10 @@
         <v>50</v>
       </c>
       <c r="B18" s="33">
-        <v>2.5899999999999999E-3</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>13</v>
@@ -1139,7 +1183,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>-5.9560974032706904</v>
+        <v>-3.3932292120129786</v>
       </c>
       <c r="K18" s="20">
         <v>1.2</v>
@@ -1169,13 +1213,13 @@
     </row>
     <row r="19" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B19" s="33">
-        <v>3.3599999999999998E-2</v>
+        <v>5.0699999999999996E-4</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>13</v>
@@ -1184,17 +1228,17 @@
         <v>12</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I19" s="12">
         <v>2</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>-3.3932292120129786</v>
+        <v>-7.586999554373091</v>
       </c>
       <c r="K19" s="20">
         <v>1.2</v>
@@ -1224,13 +1268,13 @@
     </row>
     <row r="20" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" s="33">
-        <v>5.0699999999999996E-4</v>
+        <v>4.1999999999999996E-6</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>13</v>
@@ -1239,7 +1283,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>56</v>
@@ -1249,7 +1293,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>-7.586999554373091</v>
+        <v>-12.380426032674952</v>
       </c>
       <c r="K20" s="20">
         <v>1.2</v>
@@ -1282,13 +1326,13 @@
         <v>57</v>
       </c>
       <c r="B21" s="33">
-        <v>4.1999999999999996E-6</v>
+        <v>6.36E-8</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>12</v>
@@ -1304,7 +1348,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>-12.380426032674952</v>
+        <v>-16.570652366600335</v>
       </c>
       <c r="K21" s="20">
         <v>1.2</v>
@@ -1333,17 +1377,18 @@
       </c>
     </row>
     <row r="22" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B22" s="33">
-        <v>6.36E-8</v>
+        <f>(AVERAGE(5.21, 4.86)/0.735)*B8</f>
+        <v>6.5719627473480067</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>12</v>
@@ -1351,7 +1396,7 @@
       <c r="G22" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="12" t="s">
         <v>62</v>
       </c>
       <c r="I22" s="12">
@@ -1359,7 +1404,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>-16.570652366600335</v>
+        <v>1.8828125317700346</v>
       </c>
       <c r="K22" s="20">
         <v>1.2</v>
@@ -1380,11 +1425,11 @@
         <v>1.2</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>1.05</v>
       </c>
       <c r="R22">
         <f t="shared" si="1"/>
-        <v>0.5789832236286534</v>
+        <v>0.18460621081155912</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -1392,14 +1437,14 @@
         <v>63</v>
       </c>
       <c r="B23" s="33">
-        <f>(AVERAGE(5.21, 4.86)/0.735)*B9</f>
-        <v>6.5719627473480067</v>
+        <f>8.08*B8</f>
+        <v>7.7516529024727587</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>12</v>
@@ -1407,15 +1452,12 @@
       <c r="G23" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="I23" s="12">
         <v>2</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>1.8828125317700346</v>
+        <v>2.0479060983632125</v>
       </c>
       <c r="K23" s="20">
         <v>1.2</v>
@@ -1445,30 +1487,30 @@
     </row>
     <row r="24" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B24" s="33">
-        <f>8.08*B9</f>
-        <v>7.7516529024727587</v>
+        <f>7.23*B8</f>
+        <v>6.9361943669403523</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="I24" s="12">
         <v>2</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>2.0479060983632125</v>
+        <v>1.9367532620008818</v>
       </c>
       <c r="K24" s="20">
         <v>1.2</v>
@@ -1497,31 +1539,29 @@
       </c>
     </row>
     <row r="25" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="33">
-        <f>7.23*B9</f>
-        <v>6.9361943669403523</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>23</v>
+        <f>2.5*B8</f>
+        <v>2.3984074574482546</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H25" s="11"/>
       <c r="I25" s="12">
         <v>2</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>1.9367532620008818</v>
+        <v>0.87480495770436362</v>
       </c>
       <c r="K25" s="20">
         <v>1.2</v>
@@ -1541,7 +1581,7 @@
       <c r="P25" s="20">
         <v>1.2</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="20">
         <v>1.05</v>
       </c>
       <c r="R25">
@@ -1550,62 +1590,21 @@
       </c>
     </row>
     <row r="26" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="33">
-        <f>2.5*B9</f>
-        <v>2.3984074574482546</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="A26" s="14"/>
+      <c r="B26" s="17"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="12">
-        <v>2</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>0.87480495770436362</v>
-      </c>
-      <c r="K26" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="L26" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M26" s="20">
-        <v>1.03</v>
-      </c>
-      <c r="N26" s="20">
-        <v>1.01</v>
-      </c>
-      <c r="O26" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P26" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q26" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="1"/>
-        <v>0.18460621081155912</v>
-      </c>
+      <c r="I26" s="11"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="17"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
@@ -1614,14 +1613,16 @@
       <c r="P27" s="13"/>
     </row>
     <row r="28" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
+      <c r="J28"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28"/>
+      <c r="R28"/>
     </row>
     <row r="29" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="17"/>
@@ -1685,6 +1686,8 @@
     </row>
     <row r="34" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="17"/>
+      <c r="E34" s="11"/>
+      <c r="H34" s="11"/>
       <c r="J34"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
@@ -1697,7 +1700,6 @@
     </row>
     <row r="35" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="17"/>
-      <c r="E35" s="11"/>
       <c r="H35" s="11"/>
       <c r="J35"/>
       <c r="K35" s="20"/>
@@ -1711,7 +1713,6 @@
     </row>
     <row r="36" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="17"/>
-      <c r="H36" s="11"/>
       <c r="J36"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
@@ -1772,6 +1773,8 @@
     </row>
     <row r="41" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="17"/>
+      <c r="E41" s="11"/>
+      <c r="G41" s="11"/>
       <c r="J41"/>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
@@ -1793,36 +1796,32 @@
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
       <c r="P42" s="20"/>
-      <c r="Q42"/>
+      <c r="Q42" s="20"/>
       <c r="R42"/>
     </row>
     <row r="43" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="17"/>
-      <c r="E43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="J43"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
     </row>
     <row r="44" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B44" s="17"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="26"/>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
     </row>
     <row r="45" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="K45" s="25"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="K45" s="27"/>
       <c r="L45" s="26"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
@@ -1832,7 +1831,7 @@
     <row r="46" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="15"/>
-      <c r="K46" s="27"/>
+      <c r="K46" s="13"/>
       <c r="L46" s="26"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
@@ -1841,17 +1840,17 @@
     </row>
     <row r="47" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="17"/>
       <c r="K47" s="13"/>
-      <c r="L47" s="26"/>
+      <c r="L47" s="13"/>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
     </row>
-    <row r="48" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
-      <c r="B48" s="17"/>
+      <c r="B48" s="15"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
@@ -1859,9 +1858,11 @@
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
     </row>
-    <row r="49" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="17"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
@@ -1870,10 +1871,15 @@
       <c r="P49" s="13"/>
     </row>
     <row r="50" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
@@ -1886,52 +1892,48 @@
       <c r="B51" s="10"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
+      <c r="E51" s="24"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="8"/>
     </row>
     <row r="52" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="8"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="27"/>
     </row>
     <row r="53" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
       <c r="B53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="J53"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53"/>
+      <c r="R53"/>
     </row>
     <row r="54" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="17"/>
@@ -2013,7 +2015,7 @@
     </row>
     <row r="60" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" s="17"/>
-      <c r="H60" s="28"/>
+      <c r="H60" s="11"/>
       <c r="J60"/>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
@@ -2505,8 +2507,10 @@
       <c r="Q97"/>
       <c r="R97"/>
     </row>
-    <row r="98" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B98" s="17"/>
+    <row r="98" spans="1:20" s="12" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="29"/>
+      <c r="B98" s="30"/>
+      <c r="G98" s="11"/>
       <c r="H98" s="11"/>
       <c r="J98"/>
       <c r="K98" s="20"/>
@@ -2518,9 +2522,9 @@
       <c r="Q98"/>
       <c r="R98"/>
     </row>
-    <row r="99" spans="1:20" s="12" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="29"/>
+    <row r="99" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B99" s="30"/>
+      <c r="D99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
       <c r="J99"/>
@@ -2549,10 +2553,8 @@
       <c r="R100"/>
     </row>
     <row r="101" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B101" s="30"/>
-      <c r="D101" s="11"/>
+      <c r="B101" s="17"/>
       <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
       <c r="J101"/>
       <c r="K101" s="20"/>
       <c r="L101" s="20"/>
@@ -2565,30 +2567,27 @@
     </row>
     <row r="102" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B102" s="17"/>
-      <c r="G102" s="11"/>
-      <c r="J102"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="20"/>
-      <c r="N102" s="20"/>
-      <c r="O102" s="20"/>
-      <c r="P102" s="20"/>
-      <c r="Q102"/>
-      <c r="R102"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="13"/>
     </row>
     <row r="103" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B103" s="17"/>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="10"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="26"/>
       <c r="M103" s="13"/>
       <c r="N103" s="13"/>
       <c r="O103" s="13"/>
       <c r="P103" s="13"/>
     </row>
     <row r="104" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="9"/>
-      <c r="B104" s="10"/>
-      <c r="K104" s="25"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="15"/>
+      <c r="K104" s="27"/>
       <c r="L104" s="26"/>
       <c r="M104" s="13"/>
       <c r="N104" s="13"/>
@@ -2598,7 +2597,7 @@
     <row r="105" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="14"/>
       <c r="B105" s="15"/>
-      <c r="K105" s="27"/>
+      <c r="K105" s="13"/>
       <c r="L105" s="26"/>
       <c r="M105" s="13"/>
       <c r="N105" s="13"/>
@@ -2607,17 +2606,17 @@
     </row>
     <row r="106" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="14"/>
-      <c r="B106" s="15"/>
+      <c r="B106" s="17"/>
       <c r="K106" s="13"/>
-      <c r="L106" s="26"/>
+      <c r="L106" s="13"/>
       <c r="M106" s="13"/>
       <c r="N106" s="13"/>
       <c r="O106" s="13"/>
       <c r="P106" s="13"/>
     </row>
-    <row r="107" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="14"/>
-      <c r="B107" s="17"/>
+      <c r="B107" s="15"/>
       <c r="K107" s="13"/>
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
@@ -2625,9 +2624,11 @@
       <c r="O107" s="13"/>
       <c r="P107" s="13"/>
     </row>
-    <row r="108" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
-      <c r="B108" s="15"/>
+      <c r="B108" s="17"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
       <c r="K108" s="13"/>
       <c r="L108" s="13"/>
       <c r="M108" s="13"/>
@@ -2636,10 +2637,15 @@
       <c r="P108" s="13"/>
     </row>
     <row r="109" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="14"/>
-      <c r="B109" s="17"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
       <c r="K109" s="13"/>
       <c r="L109" s="13"/>
       <c r="M109" s="13"/>
@@ -2652,54 +2658,49 @@
       <c r="B110" s="10"/>
       <c r="C110" s="18"/>
       <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
+      <c r="E110" s="24"/>
       <c r="F110" s="18"/>
       <c r="G110" s="18"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
-      <c r="O110" s="13"/>
-      <c r="P110" s="13"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="19"/>
+      <c r="M110" s="19"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="19"/>
+      <c r="P110" s="19"/>
+      <c r="Q110" s="8"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="18"/>
+      <c r="T110" s="8"/>
     </row>
     <row r="111" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="18"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="19"/>
-      <c r="L111" s="19"/>
-      <c r="M111" s="19"/>
-      <c r="N111" s="19"/>
-      <c r="O111" s="19"/>
-      <c r="P111" s="19"/>
-      <c r="Q111" s="8"/>
-      <c r="R111" s="8"/>
-      <c r="S111" s="18"/>
-      <c r="T111" s="8"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
+      <c r="E111" s="11"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
+      <c r="M111" s="13"/>
+      <c r="N111" s="13"/>
+      <c r="O111" s="13"/>
+      <c r="P111" s="13"/>
     </row>
     <row r="112" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="17"/>
       <c r="B112" s="17"/>
-      <c r="E112" s="11"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="13"/>
-      <c r="O112" s="13"/>
-      <c r="P112" s="13"/>
+      <c r="J112"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="20"/>
+      <c r="M112" s="20"/>
+      <c r="N112" s="20"/>
+      <c r="O112" s="20"/>
+      <c r="P112" s="20"/>
+      <c r="Q112" s="20"/>
+      <c r="R112"/>
     </row>
     <row r="113" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B113" s="17"/>
@@ -3075,18 +3076,17 @@
     </row>
     <row r="144" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B144" s="17"/>
-      <c r="J144"/>
-      <c r="K144" s="20"/>
-      <c r="L144" s="20"/>
-      <c r="M144" s="20"/>
-      <c r="N144" s="20"/>
-      <c r="O144" s="20"/>
-      <c r="P144" s="20"/>
-      <c r="Q144" s="20"/>
-      <c r="R144"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="13"/>
+      <c r="M144" s="13"/>
+      <c r="N144" s="13"/>
+      <c r="O144" s="13"/>
+      <c r="P144" s="13"/>
     </row>
     <row r="145" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B145" s="17"/>
+      <c r="A145" s="9"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="11"/>
       <c r="K145" s="13"/>
       <c r="L145" s="13"/>
       <c r="M145" s="13"/>
@@ -3095,9 +3095,8 @@
       <c r="P145" s="13"/>
     </row>
     <row r="146" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="9"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="11"/>
+      <c r="A146" s="14"/>
+      <c r="B146" s="15"/>
       <c r="K146" s="13"/>
       <c r="L146" s="13"/>
       <c r="M146" s="13"/>
@@ -3117,7 +3116,7 @@
     </row>
     <row r="148" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="14"/>
-      <c r="B148" s="15"/>
+      <c r="B148" s="16"/>
       <c r="K148" s="13"/>
       <c r="L148" s="13"/>
       <c r="M148" s="13"/>
@@ -3127,7 +3126,7 @@
     </row>
     <row r="149" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="14"/>
-      <c r="B149" s="16"/>
+      <c r="B149" s="15"/>
       <c r="K149" s="13"/>
       <c r="L149" s="13"/>
       <c r="M149" s="13"/>
@@ -3137,7 +3136,10 @@
     </row>
     <row r="150" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="14"/>
-      <c r="B150" s="15"/>
+      <c r="B150" s="17"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="18"/>
       <c r="K150" s="13"/>
       <c r="L150" s="13"/>
       <c r="M150" s="13"/>
@@ -3146,11 +3148,16 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="14"/>
-      <c r="B151" s="17"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
-      <c r="J151" s="18"/>
+      <c r="A151" s="18"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
       <c r="K151" s="13"/>
       <c r="L151" s="13"/>
       <c r="M151" s="13"/>
@@ -3166,51 +3173,45 @@
       <c r="E152" s="18"/>
       <c r="F152" s="18"/>
       <c r="G152" s="18"/>
-      <c r="H152" s="11"/>
-      <c r="I152" s="11"/>
-      <c r="J152" s="11"/>
-      <c r="K152" s="13"/>
-      <c r="L152" s="13"/>
-      <c r="M152" s="13"/>
-      <c r="N152" s="13"/>
-      <c r="O152" s="13"/>
-      <c r="P152" s="13"/>
+      <c r="H152" s="24"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="19"/>
+      <c r="L152" s="19"/>
+      <c r="M152" s="19"/>
+      <c r="N152" s="19"/>
+      <c r="O152" s="19"/>
+      <c r="P152" s="19"/>
+      <c r="Q152" s="8"/>
+      <c r="R152" s="8"/>
+      <c r="S152" s="18"/>
+      <c r="T152" s="8"/>
     </row>
     <row r="153" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="18"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="24"/>
-      <c r="I153" s="18"/>
-      <c r="J153" s="8"/>
-      <c r="K153" s="19"/>
-      <c r="L153" s="19"/>
-      <c r="M153" s="19"/>
-      <c r="N153" s="19"/>
-      <c r="O153" s="19"/>
-      <c r="P153" s="19"/>
-      <c r="Q153" s="8"/>
-      <c r="R153" s="8"/>
-      <c r="S153" s="18"/>
-      <c r="T153" s="8"/>
+      <c r="A153" s="17"/>
+      <c r="B153" s="17"/>
+      <c r="E153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="K153" s="13"/>
+      <c r="L153" s="13"/>
+      <c r="M153" s="13"/>
+      <c r="N153" s="13"/>
+      <c r="O153" s="13"/>
+      <c r="P153" s="13"/>
+      <c r="T153"/>
     </row>
     <row r="154" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="17"/>
-      <c r="B154" s="17"/>
-      <c r="E154" s="11"/>
-      <c r="H154" s="11"/>
-      <c r="I154" s="11"/>
-      <c r="K154" s="13"/>
-      <c r="L154" s="13"/>
-      <c r="M154" s="13"/>
-      <c r="N154" s="13"/>
-      <c r="O154" s="13"/>
-      <c r="P154" s="13"/>
-      <c r="T154"/>
+      <c r="J154"/>
+      <c r="K154" s="20"/>
+      <c r="L154" s="20"/>
+      <c r="M154" s="20"/>
+      <c r="N154" s="20"/>
+      <c r="O154" s="20"/>
+      <c r="P154" s="20"/>
+      <c r="Q154"/>
+      <c r="R154"/>
     </row>
     <row r="155" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="17"/>
@@ -3225,7 +3226,10 @@
       <c r="R155"/>
     </row>
     <row r="156" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="17"/>
+      <c r="A156" s="14"/>
+      <c r="B156" s="17"/>
+      <c r="E156" s="11"/>
+      <c r="H156" s="11"/>
       <c r="J156"/>
       <c r="K156" s="20"/>
       <c r="L156" s="20"/>
@@ -3240,6 +3244,7 @@
       <c r="A157" s="14"/>
       <c r="B157" s="17"/>
       <c r="E157" s="11"/>
+      <c r="G157" s="14"/>
       <c r="H157" s="11"/>
       <c r="J157"/>
       <c r="K157" s="20"/>
@@ -3254,9 +3259,7 @@
     <row r="158" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="14"/>
       <c r="B158" s="17"/>
-      <c r="E158" s="11"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="11"/>
+      <c r="H158" s="21"/>
       <c r="J158"/>
       <c r="K158" s="20"/>
       <c r="L158" s="20"/>
@@ -3268,9 +3271,14 @@
       <c r="R158"/>
     </row>
     <row r="159" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="14"/>
-      <c r="B159" s="17"/>
-      <c r="H159" s="21"/>
+      <c r="A159" s="22"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="22"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="22"/>
+      <c r="H159" s="23"/>
       <c r="J159"/>
       <c r="K159" s="20"/>
       <c r="L159" s="20"/>
@@ -3278,30 +3286,21 @@
       <c r="N159" s="20"/>
       <c r="O159" s="20"/>
       <c r="P159" s="20"/>
-      <c r="Q159"/>
+      <c r="Q159" s="20"/>
       <c r="R159"/>
     </row>
     <row r="160" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="22"/>
-      <c r="B160" s="16"/>
-      <c r="C160" s="22"/>
-      <c r="D160" s="22"/>
-      <c r="E160" s="22"/>
-      <c r="F160" s="22"/>
-      <c r="G160" s="22"/>
-      <c r="H160" s="23"/>
-      <c r="J160"/>
-      <c r="K160" s="20"/>
-      <c r="L160" s="20"/>
-      <c r="M160" s="20"/>
-      <c r="N160" s="20"/>
-      <c r="O160" s="20"/>
-      <c r="P160" s="20"/>
-      <c r="Q160" s="20"/>
-      <c r="R160"/>
+      <c r="B160" s="17"/>
+      <c r="K160" s="13"/>
+      <c r="L160" s="13"/>
+      <c r="M160" s="13"/>
+      <c r="N160" s="13"/>
+      <c r="O160" s="13"/>
+      <c r="P160" s="13"/>
     </row>
     <row r="161" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B161" s="17"/>
+      <c r="A161" s="9"/>
+      <c r="B161" s="10"/>
       <c r="K161" s="13"/>
       <c r="L161" s="13"/>
       <c r="M161" s="13"/>
@@ -3310,8 +3309,8 @@
       <c r="P161" s="13"/>
     </row>
     <row r="162" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162" s="9"/>
-      <c r="B162" s="10"/>
+      <c r="A162" s="14"/>
+      <c r="B162" s="15"/>
       <c r="K162" s="13"/>
       <c r="L162" s="13"/>
       <c r="M162" s="13"/>
@@ -3331,7 +3330,7 @@
     </row>
     <row r="164" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="14"/>
-      <c r="B164" s="15"/>
+      <c r="B164" s="17"/>
       <c r="K164" s="13"/>
       <c r="L164" s="13"/>
       <c r="M164" s="13"/>
@@ -3341,7 +3340,7 @@
     </row>
     <row r="165" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="14"/>
-      <c r="B165" s="17"/>
+      <c r="B165" s="15"/>
       <c r="K165" s="13"/>
       <c r="L165" s="13"/>
       <c r="M165" s="13"/>
@@ -3351,7 +3350,7 @@
     </row>
     <row r="166" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="14"/>
-      <c r="B166" s="15"/>
+      <c r="B166" s="17"/>
       <c r="K166" s="13"/>
       <c r="L166" s="13"/>
       <c r="M166" s="13"/>
@@ -3360,8 +3359,16 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="14"/>
-      <c r="B167" s="17"/>
+      <c r="A167" s="18"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="18"/>
+      <c r="H167" s="18"/>
+      <c r="I167" s="18"/>
+      <c r="J167" s="18"/>
       <c r="K167" s="13"/>
       <c r="L167" s="13"/>
       <c r="M167" s="13"/>
@@ -3374,50 +3381,44 @@
       <c r="B168" s="10"/>
       <c r="C168" s="18"/>
       <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
+      <c r="E168" s="24"/>
       <c r="F168" s="18"/>
       <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
+      <c r="H168" s="24"/>
       <c r="I168" s="18"/>
-      <c r="J168" s="18"/>
-      <c r="K168" s="13"/>
-      <c r="L168" s="13"/>
-      <c r="M168" s="13"/>
-      <c r="N168" s="13"/>
-      <c r="O168" s="13"/>
-      <c r="P168" s="13"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="19"/>
+      <c r="L168" s="19"/>
+      <c r="M168" s="19"/>
+      <c r="N168" s="19"/>
+      <c r="O168" s="19"/>
+      <c r="P168" s="19"/>
+      <c r="Q168" s="8"/>
+      <c r="R168" s="8"/>
+      <c r="S168" s="18"/>
+      <c r="T168" s="8"/>
     </row>
     <row r="169" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="18"/>
-      <c r="B169" s="10"/>
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="24"/>
-      <c r="I169" s="18"/>
-      <c r="J169" s="8"/>
-      <c r="K169" s="19"/>
-      <c r="L169" s="19"/>
-      <c r="M169" s="19"/>
-      <c r="N169" s="19"/>
-      <c r="O169" s="19"/>
-      <c r="P169" s="19"/>
-      <c r="Q169" s="8"/>
-      <c r="R169" s="8"/>
-      <c r="S169" s="18"/>
-      <c r="T169" s="8"/>
+      <c r="A169" s="17"/>
+      <c r="B169" s="17"/>
+      <c r="K169" s="13"/>
+      <c r="L169" s="13"/>
+      <c r="M169" s="13"/>
+      <c r="N169" s="13"/>
+      <c r="O169" s="13"/>
+      <c r="P169" s="13"/>
     </row>
     <row r="170" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="17"/>
-      <c r="B170" s="17"/>
-      <c r="K170" s="13"/>
-      <c r="L170" s="13"/>
-      <c r="M170" s="13"/>
-      <c r="N170" s="13"/>
-      <c r="O170" s="13"/>
-      <c r="P170" s="13"/>
+      <c r="B170" s="13"/>
+      <c r="J170"/>
+      <c r="K170" s="20"/>
+      <c r="L170" s="20"/>
+      <c r="M170" s="20"/>
+      <c r="N170" s="20"/>
+      <c r="O170" s="20"/>
+      <c r="P170" s="20"/>
+      <c r="Q170"/>
+      <c r="R170"/>
     </row>
     <row r="171" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B171" s="13"/>
@@ -3457,6 +3458,8 @@
     </row>
     <row r="174" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B174" s="13"/>
+      <c r="E174" s="11"/>
+      <c r="G174" s="11"/>
       <c r="J174"/>
       <c r="K174" s="20"/>
       <c r="L174" s="20"/>
@@ -3496,34 +3499,30 @@
       <c r="R176"/>
     </row>
     <row r="177" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B177" s="13"/>
-      <c r="E177" s="11"/>
+      <c r="B177" s="17"/>
+      <c r="F177" s="11"/>
       <c r="G177" s="11"/>
-      <c r="J177"/>
-      <c r="K177" s="20"/>
-      <c r="L177" s="20"/>
-      <c r="M177" s="20"/>
-      <c r="N177" s="20"/>
-      <c r="O177" s="20"/>
-      <c r="P177" s="20"/>
-      <c r="Q177"/>
-      <c r="R177"/>
+      <c r="K177" s="13"/>
+      <c r="L177" s="13"/>
+      <c r="M177" s="13"/>
+      <c r="N177" s="13"/>
+      <c r="O177" s="13"/>
+      <c r="P177" s="13"/>
     </row>
     <row r="178" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B178" s="17"/>
-      <c r="F178" s="11"/>
-      <c r="G178" s="11"/>
-      <c r="K178" s="13"/>
-      <c r="L178" s="13"/>
+      <c r="A178" s="9"/>
+      <c r="B178" s="10"/>
+      <c r="K178" s="25"/>
+      <c r="L178" s="26"/>
       <c r="M178" s="13"/>
       <c r="N178" s="13"/>
       <c r="O178" s="13"/>
       <c r="P178" s="13"/>
     </row>
     <row r="179" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="9"/>
-      <c r="B179" s="10"/>
-      <c r="K179" s="25"/>
+      <c r="A179" s="14"/>
+      <c r="B179" s="15"/>
+      <c r="K179" s="27"/>
       <c r="L179" s="26"/>
       <c r="M179" s="13"/>
       <c r="N179" s="13"/>
@@ -3533,7 +3532,7 @@
     <row r="180" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="14"/>
       <c r="B180" s="15"/>
-      <c r="K180" s="27"/>
+      <c r="K180" s="13"/>
       <c r="L180" s="26"/>
       <c r="M180" s="13"/>
       <c r="N180" s="13"/>
@@ -3542,17 +3541,17 @@
     </row>
     <row r="181" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="14"/>
-      <c r="B181" s="15"/>
+      <c r="B181" s="17"/>
       <c r="K181" s="13"/>
-      <c r="L181" s="26"/>
+      <c r="L181" s="13"/>
       <c r="M181" s="13"/>
       <c r="N181" s="13"/>
       <c r="O181" s="13"/>
       <c r="P181" s="13"/>
     </row>
-    <row r="182" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="14"/>
-      <c r="B182" s="17"/>
+      <c r="B182" s="15"/>
       <c r="K182" s="13"/>
       <c r="L182" s="13"/>
       <c r="M182" s="13"/>
@@ -3560,9 +3559,11 @@
       <c r="O182" s="13"/>
       <c r="P182" s="13"/>
     </row>
-    <row r="183" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="14"/>
-      <c r="B183" s="15"/>
+      <c r="B183" s="17"/>
+      <c r="H183" s="18"/>
+      <c r="I183" s="18"/>
       <c r="K183" s="13"/>
       <c r="L183" s="13"/>
       <c r="M183" s="13"/>
@@ -3571,10 +3572,15 @@
       <c r="P183" s="13"/>
     </row>
     <row r="184" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A184" s="14"/>
-      <c r="B184" s="17"/>
-      <c r="H184" s="18"/>
-      <c r="I184" s="18"/>
+      <c r="A184" s="18"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="18"/>
+      <c r="D184" s="18"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="18"/>
+      <c r="G184" s="18"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="11"/>
       <c r="K184" s="13"/>
       <c r="L184" s="13"/>
       <c r="M184" s="13"/>
@@ -3587,53 +3593,49 @@
       <c r="B185" s="10"/>
       <c r="C185" s="18"/>
       <c r="D185" s="18"/>
-      <c r="E185" s="18"/>
+      <c r="E185" s="24"/>
       <c r="F185" s="18"/>
       <c r="G185" s="18"/>
-      <c r="H185" s="11"/>
-      <c r="I185" s="11"/>
-      <c r="K185" s="13"/>
-      <c r="L185" s="13"/>
-      <c r="M185" s="13"/>
-      <c r="N185" s="13"/>
-      <c r="O185" s="13"/>
-      <c r="P185" s="13"/>
+      <c r="H185" s="24"/>
+      <c r="I185" s="18"/>
+      <c r="J185" s="8"/>
+      <c r="K185" s="19"/>
+      <c r="L185" s="19"/>
+      <c r="M185" s="19"/>
+      <c r="N185" s="19"/>
+      <c r="O185" s="19"/>
+      <c r="P185" s="19"/>
+      <c r="Q185" s="8"/>
+      <c r="R185" s="8"/>
+      <c r="S185" s="18"/>
+      <c r="T185" s="8"/>
     </row>
     <row r="186" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="18"/>
-      <c r="B186" s="10"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="24"/>
-      <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
-      <c r="H186" s="24"/>
-      <c r="I186" s="18"/>
-      <c r="J186" s="8"/>
-      <c r="K186" s="19"/>
-      <c r="L186" s="19"/>
-      <c r="M186" s="19"/>
-      <c r="N186" s="19"/>
-      <c r="O186" s="19"/>
-      <c r="P186" s="19"/>
-      <c r="Q186" s="8"/>
-      <c r="R186" s="8"/>
-      <c r="S186" s="18"/>
-      <c r="T186" s="8"/>
+      <c r="A186" s="17"/>
+      <c r="B186" s="17"/>
+      <c r="G186" s="17"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="11"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="13"/>
+      <c r="L186" s="13"/>
+      <c r="M186" s="13"/>
+      <c r="N186" s="13"/>
+      <c r="O186" s="13"/>
+      <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="17"/>
       <c r="B187" s="17"/>
-      <c r="G187" s="17"/>
-      <c r="H187" s="11"/>
-      <c r="I187" s="11"/>
-      <c r="J187" s="11"/>
-      <c r="K187" s="13"/>
-      <c r="L187" s="13"/>
-      <c r="M187" s="13"/>
-      <c r="N187" s="13"/>
-      <c r="O187" s="13"/>
-      <c r="P187" s="13"/>
+      <c r="H187" s="28"/>
+      <c r="J187"/>
+      <c r="K187" s="20"/>
+      <c r="L187" s="20"/>
+      <c r="M187" s="20"/>
+      <c r="N187" s="20"/>
+      <c r="O187" s="20"/>
+      <c r="P187" s="20"/>
+      <c r="Q187"/>
+      <c r="R187"/>
     </row>
     <row r="188" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B188" s="17"/>
@@ -3715,7 +3717,7 @@
     </row>
     <row r="194" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B194" s="17"/>
-      <c r="H194" s="28"/>
+      <c r="H194" s="11"/>
       <c r="J194"/>
       <c r="K194" s="20"/>
       <c r="L194" s="20"/>
@@ -4350,8 +4352,10 @@
       <c r="Q242"/>
       <c r="R242"/>
     </row>
-    <row r="243" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" s="12" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="29"/>
       <c r="B243" s="17"/>
+      <c r="G243" s="11"/>
       <c r="H243" s="11"/>
       <c r="J243"/>
       <c r="K243" s="20"/>
@@ -4363,9 +4367,9 @@
       <c r="Q243"/>
       <c r="R243"/>
     </row>
-    <row r="244" spans="1:20" s="12" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="29"/>
-      <c r="B244" s="17"/>
+    <row r="244" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B244" s="30"/>
+      <c r="D244" s="11"/>
       <c r="G244" s="11"/>
       <c r="H244" s="11"/>
       <c r="J244"/>
@@ -4379,10 +4383,8 @@
       <c r="R244"/>
     </row>
     <row r="245" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B245" s="30"/>
-      <c r="D245" s="11"/>
+      <c r="B245" s="17"/>
       <c r="G245" s="11"/>
-      <c r="H245" s="11"/>
       <c r="J245"/>
       <c r="K245" s="20"/>
       <c r="L245" s="20"/>
@@ -4395,24 +4397,22 @@
     </row>
     <row r="246" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B246" s="17"/>
+      <c r="C246" s="11"/>
+      <c r="F246" s="11"/>
       <c r="G246" s="11"/>
-      <c r="J246"/>
-      <c r="K246" s="20"/>
-      <c r="L246" s="20"/>
-      <c r="M246" s="20"/>
-      <c r="N246" s="20"/>
-      <c r="O246" s="20"/>
-      <c r="P246" s="20"/>
-      <c r="Q246"/>
-      <c r="R246"/>
+      <c r="H246" s="11"/>
+      <c r="I246" s="11"/>
+      <c r="K246" s="13"/>
+      <c r="L246" s="13"/>
+      <c r="M246" s="13"/>
+      <c r="N246" s="13"/>
+      <c r="O246" s="13"/>
+      <c r="P246" s="13"/>
     </row>
     <row r="247" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B247" s="17"/>
+      <c r="A247" s="9"/>
+      <c r="B247" s="10"/>
       <c r="C247" s="11"/>
-      <c r="F247" s="11"/>
-      <c r="G247" s="11"/>
-      <c r="H247" s="11"/>
-      <c r="I247" s="11"/>
       <c r="K247" s="13"/>
       <c r="L247" s="13"/>
       <c r="M247" s="13"/>
@@ -4421,9 +4421,8 @@
       <c r="P247" s="13"/>
     </row>
     <row r="248" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A248" s="9"/>
-      <c r="B248" s="10"/>
-      <c r="C248" s="11"/>
+      <c r="A248" s="14"/>
+      <c r="B248" s="15"/>
       <c r="K248" s="13"/>
       <c r="L248" s="13"/>
       <c r="M248" s="13"/>
@@ -4443,7 +4442,7 @@
     </row>
     <row r="250" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="14"/>
-      <c r="B250" s="15"/>
+      <c r="B250" s="16"/>
       <c r="K250" s="13"/>
       <c r="L250" s="13"/>
       <c r="M250" s="13"/>
@@ -4453,7 +4452,7 @@
     </row>
     <row r="251" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="14"/>
-      <c r="B251" s="16"/>
+      <c r="B251" s="15"/>
       <c r="K251" s="13"/>
       <c r="L251" s="13"/>
       <c r="M251" s="13"/>
@@ -4463,7 +4462,10 @@
     </row>
     <row r="252" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="14"/>
-      <c r="B252" s="15"/>
+      <c r="B252" s="17"/>
+      <c r="H252" s="18"/>
+      <c r="I252" s="18"/>
+      <c r="J252" s="18"/>
       <c r="K252" s="13"/>
       <c r="L252" s="13"/>
       <c r="M252" s="13"/>
@@ -4472,11 +4474,16 @@
       <c r="P252" s="13"/>
     </row>
     <row r="253" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A253" s="14"/>
-      <c r="B253" s="17"/>
-      <c r="H253" s="18"/>
-      <c r="I253" s="18"/>
-      <c r="J253" s="18"/>
+      <c r="A253" s="18"/>
+      <c r="B253" s="10"/>
+      <c r="C253" s="18"/>
+      <c r="D253" s="18"/>
+      <c r="E253" s="18"/>
+      <c r="F253" s="18"/>
+      <c r="G253" s="18"/>
+      <c r="H253" s="11"/>
+      <c r="I253" s="11"/>
+      <c r="J253" s="11"/>
       <c r="K253" s="13"/>
       <c r="L253" s="13"/>
       <c r="M253" s="13"/>
@@ -4492,51 +4499,45 @@
       <c r="E254" s="18"/>
       <c r="F254" s="18"/>
       <c r="G254" s="18"/>
-      <c r="H254" s="11"/>
-      <c r="I254" s="11"/>
-      <c r="J254" s="11"/>
-      <c r="K254" s="13"/>
-      <c r="L254" s="13"/>
-      <c r="M254" s="13"/>
-      <c r="N254" s="13"/>
-      <c r="O254" s="13"/>
-      <c r="P254" s="13"/>
+      <c r="H254" s="24"/>
+      <c r="I254" s="18"/>
+      <c r="J254" s="8"/>
+      <c r="K254" s="19"/>
+      <c r="L254" s="19"/>
+      <c r="M254" s="19"/>
+      <c r="N254" s="19"/>
+      <c r="O254" s="19"/>
+      <c r="P254" s="19"/>
+      <c r="Q254" s="8"/>
+      <c r="R254" s="8"/>
+      <c r="S254" s="18"/>
+      <c r="T254" s="8"/>
     </row>
     <row r="255" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="18"/>
-      <c r="B255" s="10"/>
-      <c r="C255" s="18"/>
-      <c r="D255" s="18"/>
-      <c r="E255" s="18"/>
-      <c r="F255" s="18"/>
-      <c r="G255" s="18"/>
-      <c r="H255" s="24"/>
-      <c r="I255" s="18"/>
-      <c r="J255" s="8"/>
-      <c r="K255" s="19"/>
-      <c r="L255" s="19"/>
-      <c r="M255" s="19"/>
-      <c r="N255" s="19"/>
-      <c r="O255" s="19"/>
-      <c r="P255" s="19"/>
-      <c r="Q255" s="8"/>
-      <c r="R255" s="8"/>
-      <c r="S255" s="18"/>
-      <c r="T255" s="8"/>
+      <c r="A255" s="17"/>
+      <c r="B255" s="17"/>
+      <c r="E255" s="11"/>
+      <c r="H255" s="11"/>
+      <c r="I255" s="11"/>
+      <c r="K255" s="13"/>
+      <c r="L255" s="13"/>
+      <c r="M255" s="13"/>
+      <c r="N255" s="13"/>
+      <c r="O255" s="13"/>
+      <c r="P255" s="13"/>
+      <c r="T255"/>
     </row>
     <row r="256" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="17"/>
-      <c r="B256" s="17"/>
-      <c r="E256" s="11"/>
-      <c r="H256" s="11"/>
-      <c r="I256" s="11"/>
-      <c r="K256" s="13"/>
-      <c r="L256" s="13"/>
-      <c r="M256" s="13"/>
-      <c r="N256" s="13"/>
-      <c r="O256" s="13"/>
-      <c r="P256" s="13"/>
-      <c r="T256"/>
+      <c r="J256"/>
+      <c r="K256" s="20"/>
+      <c r="L256" s="20"/>
+      <c r="M256" s="20"/>
+      <c r="N256" s="20"/>
+      <c r="O256" s="20"/>
+      <c r="P256" s="20"/>
+      <c r="Q256"/>
+      <c r="R256"/>
     </row>
     <row r="257" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="17"/>
@@ -4551,7 +4552,10 @@
       <c r="R257"/>
     </row>
     <row r="258" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="17"/>
+      <c r="A258" s="14"/>
+      <c r="B258" s="17"/>
+      <c r="E258" s="11"/>
+      <c r="H258" s="11"/>
       <c r="J258"/>
       <c r="K258" s="20"/>
       <c r="L258" s="20"/>
@@ -4580,8 +4584,7 @@
     <row r="260" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="14"/>
       <c r="B260" s="17"/>
-      <c r="E260" s="11"/>
-      <c r="H260" s="11"/>
+      <c r="H260" s="21"/>
       <c r="J260"/>
       <c r="K260" s="20"/>
       <c r="L260" s="20"/>
@@ -4593,9 +4596,14 @@
       <c r="R260"/>
     </row>
     <row r="261" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A261" s="14"/>
-      <c r="B261" s="17"/>
-      <c r="H261" s="21"/>
+      <c r="A261" s="22"/>
+      <c r="B261" s="16"/>
+      <c r="C261" s="22"/>
+      <c r="D261" s="22"/>
+      <c r="E261" s="22"/>
+      <c r="F261" s="22"/>
+      <c r="G261" s="22"/>
+      <c r="H261" s="23"/>
       <c r="J261"/>
       <c r="K261" s="20"/>
       <c r="L261" s="20"/>
@@ -4603,30 +4611,21 @@
       <c r="N261" s="20"/>
       <c r="O261" s="20"/>
       <c r="P261" s="20"/>
-      <c r="Q261"/>
+      <c r="Q261" s="20"/>
       <c r="R261"/>
     </row>
     <row r="262" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A262" s="22"/>
-      <c r="B262" s="16"/>
-      <c r="C262" s="22"/>
-      <c r="D262" s="22"/>
-      <c r="E262" s="22"/>
-      <c r="F262" s="22"/>
-      <c r="G262" s="22"/>
-      <c r="H262" s="23"/>
-      <c r="J262"/>
-      <c r="K262" s="20"/>
-      <c r="L262" s="20"/>
-      <c r="M262" s="20"/>
-      <c r="N262" s="20"/>
-      <c r="O262" s="20"/>
-      <c r="P262" s="20"/>
-      <c r="Q262" s="20"/>
-      <c r="R262"/>
+      <c r="B262" s="17"/>
+      <c r="K262" s="13"/>
+      <c r="L262" s="13"/>
+      <c r="M262" s="13"/>
+      <c r="N262" s="13"/>
+      <c r="O262" s="13"/>
+      <c r="P262" s="13"/>
     </row>
     <row r="263" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B263" s="17"/>
+      <c r="A263" s="9"/>
+      <c r="B263" s="10"/>
       <c r="K263" s="13"/>
       <c r="L263" s="13"/>
       <c r="M263" s="13"/>
@@ -4635,8 +4634,8 @@
       <c r="P263" s="13"/>
     </row>
     <row r="264" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A264" s="9"/>
-      <c r="B264" s="10"/>
+      <c r="A264" s="14"/>
+      <c r="B264" s="15"/>
       <c r="K264" s="13"/>
       <c r="L264" s="13"/>
       <c r="M264" s="13"/>
@@ -4656,7 +4655,7 @@
     </row>
     <row r="266" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="14"/>
-      <c r="B266" s="15"/>
+      <c r="B266" s="17"/>
       <c r="K266" s="13"/>
       <c r="L266" s="13"/>
       <c r="M266" s="13"/>
@@ -4666,7 +4665,7 @@
     </row>
     <row r="267" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="14"/>
-      <c r="B267" s="17"/>
+      <c r="B267" s="15"/>
       <c r="K267" s="13"/>
       <c r="L267" s="13"/>
       <c r="M267" s="13"/>
@@ -4676,7 +4675,7 @@
     </row>
     <row r="268" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="14"/>
-      <c r="B268" s="15"/>
+      <c r="B268" s="17"/>
       <c r="K268" s="13"/>
       <c r="L268" s="13"/>
       <c r="M268" s="13"/>
@@ -4685,8 +4684,16 @@
       <c r="P268" s="13"/>
     </row>
     <row r="269" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A269" s="14"/>
-      <c r="B269" s="17"/>
+      <c r="A269" s="18"/>
+      <c r="B269" s="10"/>
+      <c r="C269" s="18"/>
+      <c r="D269" s="18"/>
+      <c r="E269" s="18"/>
+      <c r="F269" s="18"/>
+      <c r="G269" s="18"/>
+      <c r="H269" s="18"/>
+      <c r="I269" s="18"/>
+      <c r="J269" s="18"/>
       <c r="K269" s="13"/>
       <c r="L269" s="13"/>
       <c r="M269" s="13"/>
@@ -4699,50 +4706,44 @@
       <c r="B270" s="10"/>
       <c r="C270" s="18"/>
       <c r="D270" s="18"/>
-      <c r="E270" s="18"/>
+      <c r="E270" s="24"/>
       <c r="F270" s="18"/>
       <c r="G270" s="18"/>
-      <c r="H270" s="18"/>
+      <c r="H270" s="24"/>
       <c r="I270" s="18"/>
-      <c r="J270" s="18"/>
-      <c r="K270" s="13"/>
-      <c r="L270" s="13"/>
-      <c r="M270" s="13"/>
-      <c r="N270" s="13"/>
-      <c r="O270" s="13"/>
-      <c r="P270" s="13"/>
+      <c r="J270" s="8"/>
+      <c r="K270" s="19"/>
+      <c r="L270" s="19"/>
+      <c r="M270" s="19"/>
+      <c r="N270" s="19"/>
+      <c r="O270" s="19"/>
+      <c r="P270" s="19"/>
+      <c r="Q270" s="8"/>
+      <c r="R270" s="8"/>
+      <c r="S270" s="18"/>
+      <c r="T270" s="8"/>
     </row>
     <row r="271" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="18"/>
-      <c r="B271" s="10"/>
-      <c r="C271" s="18"/>
-      <c r="D271" s="18"/>
-      <c r="E271" s="24"/>
-      <c r="F271" s="18"/>
-      <c r="G271" s="18"/>
-      <c r="H271" s="24"/>
-      <c r="I271" s="18"/>
-      <c r="J271" s="8"/>
-      <c r="K271" s="19"/>
-      <c r="L271" s="19"/>
-      <c r="M271" s="19"/>
-      <c r="N271" s="19"/>
-      <c r="O271" s="19"/>
-      <c r="P271" s="19"/>
-      <c r="Q271" s="8"/>
-      <c r="R271" s="8"/>
-      <c r="S271" s="18"/>
-      <c r="T271" s="8"/>
+      <c r="A271" s="17"/>
+      <c r="B271" s="17"/>
+      <c r="K271" s="13"/>
+      <c r="L271" s="13"/>
+      <c r="M271" s="13"/>
+      <c r="N271" s="13"/>
+      <c r="O271" s="13"/>
+      <c r="P271" s="13"/>
     </row>
     <row r="272" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A272" s="17"/>
-      <c r="B272" s="17"/>
-      <c r="K272" s="13"/>
-      <c r="L272" s="13"/>
-      <c r="M272" s="13"/>
-      <c r="N272" s="13"/>
-      <c r="O272" s="13"/>
-      <c r="P272" s="13"/>
+      <c r="B272" s="13"/>
+      <c r="J272"/>
+      <c r="K272" s="20"/>
+      <c r="L272" s="20"/>
+      <c r="M272" s="20"/>
+      <c r="N272" s="20"/>
+      <c r="O272" s="20"/>
+      <c r="P272" s="20"/>
+      <c r="Q272"/>
+      <c r="R272"/>
     </row>
     <row r="273" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B273" s="13"/>
@@ -4926,31 +4927,29 @@
     </row>
     <row r="288" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B288" s="13"/>
-      <c r="J288"/>
-      <c r="K288" s="20"/>
-      <c r="L288" s="20"/>
-      <c r="M288" s="20"/>
-      <c r="N288" s="20"/>
-      <c r="O288" s="20"/>
-      <c r="P288" s="20"/>
-      <c r="Q288"/>
-      <c r="R288"/>
+      <c r="F288" s="11"/>
+      <c r="G288" s="11"/>
+      <c r="K288" s="13"/>
+      <c r="L288" s="13"/>
+      <c r="M288" s="13"/>
+      <c r="N288" s="13"/>
+      <c r="O288" s="13"/>
+      <c r="P288" s="13"/>
     </row>
     <row r="289" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B289" s="13"/>
-      <c r="F289" s="11"/>
-      <c r="G289" s="11"/>
-      <c r="K289" s="13"/>
-      <c r="L289" s="13"/>
+      <c r="A289" s="9"/>
+      <c r="B289" s="10"/>
+      <c r="K289" s="25"/>
+      <c r="L289" s="26"/>
       <c r="M289" s="13"/>
       <c r="N289" s="13"/>
       <c r="O289" s="13"/>
       <c r="P289" s="13"/>
     </row>
     <row r="290" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A290" s="9"/>
-      <c r="B290" s="10"/>
-      <c r="K290" s="25"/>
+      <c r="A290" s="14"/>
+      <c r="B290" s="15"/>
+      <c r="K290" s="27"/>
       <c r="L290" s="26"/>
       <c r="M290" s="13"/>
       <c r="N290" s="13"/>
@@ -4960,7 +4959,7 @@
     <row r="291" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="14"/>
       <c r="B291" s="15"/>
-      <c r="K291" s="27"/>
+      <c r="K291" s="13"/>
       <c r="L291" s="26"/>
       <c r="M291" s="13"/>
       <c r="N291" s="13"/>
@@ -4969,17 +4968,17 @@
     </row>
     <row r="292" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="14"/>
-      <c r="B292" s="15"/>
+      <c r="B292" s="17"/>
       <c r="K292" s="13"/>
-      <c r="L292" s="26"/>
+      <c r="L292" s="13"/>
       <c r="M292" s="13"/>
       <c r="N292" s="13"/>
       <c r="O292" s="13"/>
       <c r="P292" s="13"/>
     </row>
-    <row r="293" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="14"/>
-      <c r="B293" s="17"/>
+      <c r="B293" s="15"/>
       <c r="K293" s="13"/>
       <c r="L293" s="13"/>
       <c r="M293" s="13"/>
@@ -4987,9 +4986,11 @@
       <c r="O293" s="13"/>
       <c r="P293" s="13"/>
     </row>
-    <row r="294" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="14"/>
-      <c r="B294" s="15"/>
+      <c r="B294" s="17"/>
+      <c r="H294" s="18"/>
+      <c r="I294" s="18"/>
       <c r="K294" s="13"/>
       <c r="L294" s="13"/>
       <c r="M294" s="13"/>
@@ -4998,10 +4999,15 @@
       <c r="P294" s="13"/>
     </row>
     <row r="295" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A295" s="14"/>
-      <c r="B295" s="17"/>
-      <c r="H295" s="18"/>
-      <c r="I295" s="18"/>
+      <c r="A295" s="18"/>
+      <c r="B295" s="10"/>
+      <c r="C295" s="18"/>
+      <c r="D295" s="18"/>
+      <c r="E295" s="18"/>
+      <c r="F295" s="18"/>
+      <c r="G295" s="18"/>
+      <c r="H295" s="11"/>
+      <c r="I295" s="11"/>
       <c r="K295" s="13"/>
       <c r="L295" s="13"/>
       <c r="M295" s="13"/>
@@ -5014,53 +5020,49 @@
       <c r="B296" s="10"/>
       <c r="C296" s="18"/>
       <c r="D296" s="18"/>
-      <c r="E296" s="18"/>
+      <c r="E296" s="24"/>
       <c r="F296" s="18"/>
       <c r="G296" s="18"/>
-      <c r="H296" s="11"/>
-      <c r="I296" s="11"/>
-      <c r="K296" s="13"/>
-      <c r="L296" s="13"/>
-      <c r="M296" s="13"/>
-      <c r="N296" s="13"/>
-      <c r="O296" s="13"/>
-      <c r="P296" s="13"/>
+      <c r="H296" s="24"/>
+      <c r="I296" s="18"/>
+      <c r="J296" s="8"/>
+      <c r="K296" s="19"/>
+      <c r="L296" s="19"/>
+      <c r="M296" s="19"/>
+      <c r="N296" s="19"/>
+      <c r="O296" s="19"/>
+      <c r="P296" s="19"/>
+      <c r="Q296" s="8"/>
+      <c r="R296" s="8"/>
+      <c r="S296" s="18"/>
+      <c r="T296" s="8"/>
     </row>
     <row r="297" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A297" s="18"/>
-      <c r="B297" s="10"/>
-      <c r="C297" s="18"/>
-      <c r="D297" s="18"/>
-      <c r="E297" s="24"/>
-      <c r="F297" s="18"/>
-      <c r="G297" s="18"/>
-      <c r="H297" s="24"/>
-      <c r="I297" s="18"/>
-      <c r="J297" s="8"/>
-      <c r="K297" s="19"/>
-      <c r="L297" s="19"/>
-      <c r="M297" s="19"/>
-      <c r="N297" s="19"/>
-      <c r="O297" s="19"/>
-      <c r="P297" s="19"/>
-      <c r="Q297" s="8"/>
-      <c r="R297" s="8"/>
-      <c r="S297" s="18"/>
-      <c r="T297" s="8"/>
+      <c r="A297" s="17"/>
+      <c r="B297" s="17"/>
+      <c r="G297" s="17"/>
+      <c r="H297" s="11"/>
+      <c r="I297" s="11"/>
+      <c r="J297" s="11"/>
+      <c r="K297" s="13"/>
+      <c r="L297" s="13"/>
+      <c r="M297" s="13"/>
+      <c r="N297" s="13"/>
+      <c r="O297" s="13"/>
+      <c r="P297" s="13"/>
     </row>
     <row r="298" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A298" s="17"/>
-      <c r="B298" s="17"/>
-      <c r="G298" s="17"/>
+      <c r="B298" s="13"/>
       <c r="H298" s="11"/>
-      <c r="I298" s="11"/>
-      <c r="J298" s="11"/>
-      <c r="K298" s="13"/>
-      <c r="L298" s="13"/>
-      <c r="M298" s="13"/>
-      <c r="N298" s="13"/>
-      <c r="O298" s="13"/>
-      <c r="P298" s="13"/>
+      <c r="J298"/>
+      <c r="K298" s="20"/>
+      <c r="L298" s="20"/>
+      <c r="M298" s="20"/>
+      <c r="N298" s="20"/>
+      <c r="O298" s="20"/>
+      <c r="P298" s="20"/>
+      <c r="Q298"/>
+      <c r="R298"/>
     </row>
     <row r="299" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B299" s="13"/>
@@ -5076,7 +5078,9 @@
       <c r="R299"/>
     </row>
     <row r="300" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B300" s="13"/>
+      <c r="A300" s="17"/>
+      <c r="B300" s="17"/>
+      <c r="G300" s="17"/>
       <c r="H300" s="11"/>
       <c r="J300"/>
       <c r="K300" s="20"/>
@@ -5989,10 +5993,7 @@
       <c r="R360"/>
     </row>
     <row r="361" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A361" s="17"/>
-      <c r="B361" s="17"/>
-      <c r="G361" s="17"/>
-      <c r="H361" s="11"/>
+      <c r="B361" s="13"/>
       <c r="J361"/>
       <c r="K361" s="20"/>
       <c r="L361" s="20"/>
@@ -6004,27 +6005,15 @@
       <c r="R361"/>
     </row>
     <row r="362" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B362" s="13"/>
-      <c r="J362"/>
-      <c r="K362" s="20"/>
-      <c r="L362" s="20"/>
-      <c r="M362" s="20"/>
-      <c r="N362" s="20"/>
-      <c r="O362" s="20"/>
-      <c r="P362" s="20"/>
-      <c r="Q362"/>
-      <c r="R362"/>
-    </row>
-    <row r="363" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B363" s="17"/>
-      <c r="F363" s="11"/>
-      <c r="G363" s="11"/>
-      <c r="K363" s="13"/>
-      <c r="L363" s="13"/>
-      <c r="M363" s="13"/>
-      <c r="N363" s="13"/>
-      <c r="O363" s="13"/>
-      <c r="P363" s="13"/>
+      <c r="B362" s="17"/>
+      <c r="F362" s="11"/>
+      <c r="G362" s="11"/>
+      <c r="K362" s="13"/>
+      <c r="L362" s="13"/>
+      <c r="M362" s="13"/>
+      <c r="N362" s="13"/>
+      <c r="O362" s="13"/>
+      <c r="P362" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
